--- a/iss_template.xlsx
+++ b/iss_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1130084D-3E95-4A0D-8525-8BE2D6E1054F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA0CD3-564B-45CC-AFDE-DB6793A9C4DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18096" yWindow="168" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iss_template" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>search_run_date</t>
   </si>
   <si>
-    <t>pizza+delivery</t>
+    <t>delivery+person</t>
   </si>
 </sst>
 </file>
@@ -895,11 +895,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -929,7 +930,7 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">NOW()</f>
-        <v>43719.314907870372</v>
+        <v>43719.337774652777</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -944,7 +945,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C5" ca="1" si="0">NOW()</f>
-        <v>43719.314907870372</v>
+        <v>43719.337774652777</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -959,7 +960,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43719.314907870372</v>
+        <v>43719.337774652777</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -974,7 +975,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43719.314907870372</v>
+        <v>43719.337774652777</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>

--- a/iss_template.xlsx
+++ b/iss_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACA0CD3-564B-45CC-AFDE-DB6793A9C4DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA252478-8B6E-4EC1-9098-785D92AF2027}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18096" yWindow="168" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15816" yWindow="3900" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iss_template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>search_keyword_list</t>
   </si>
@@ -45,16 +45,27 @@
     <t>search_run_date</t>
   </si>
   <si>
-    <t>delivery+person</t>
+    <t>python</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>90021</t>
+  </si>
+  <si>
+    <t>60605</t>
+  </si>
+  <si>
+    <t>75202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy\ hh:mm:ss;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -533,10 +544,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,7 +905,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,12 +935,12 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>10001</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
         <f ca="1">NOW()</f>
-        <v>43719.337774652777</v>
+        <v>43720.690401851854</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -940,12 +950,12 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>90021</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C5" ca="1" si="0">NOW()</f>
-        <v>43719.337774652777</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <f ca="1">NOW()</f>
+        <v>43720.690401851854</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -955,12 +965,12 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>60605</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>43719.337774652777</v>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C5" ca="1" si="0">NOW()</f>
+        <v>43720.690401851854</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -970,12 +980,12 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>75202</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43719.337774652777</v>
+        <v>43720.690401851854</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
